--- a/数据整理/stocks/其他/LULU-LululemonAthleticaInc.xlsx
+++ b/数据整理/stocks/其他/LULU-LululemonAthleticaInc.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/LULU-LululemonAthleticaInc.xlsx
+++ b/数据整理/stocks/其他/LULU-LululemonAthleticaInc.xlsx
@@ -1112,12 +1112,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/其他/LULU-LululemonAthleticaInc.xlsx
+++ b/数据整理/stocks/其他/LULU-LululemonAthleticaInc.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1096,7 +1097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,17 +1108,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1127,14 +1148,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.49</v>
+          <t>000593</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强(QDII)-美元现汇</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1143,13 +1186,157 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>005676</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>118002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>8</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>6.71</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/LULU-LululemonAthleticaInc.xlsx
+++ b/数据整理/stocks/其他/LULU-LululemonAthleticaInc.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1267,7 +1268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1278,17 +1279,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1298,14 +1319,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.49</v>
+          <t>000593</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强(QDII)-美元现汇</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1314,14 +1357,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>005676</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.49</v>
       </c>
     </row>
     <row r="4">
@@ -1330,13 +1395,135 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>118002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>6.71</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/LULU-LululemonAthleticaInc.xlsx
+++ b/数据整理/stocks/其他/LULU-LululemonAthleticaInc.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,357 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000906</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发全球精选股票(QDII)美元现汇</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>49.29</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.36</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.2526</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>270023</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发全球精选股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>49.29</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.36</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.2526</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006308</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇添富全球消费行业混合（QDII）人民币A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>25.54</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.57</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.9092</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+      <c r="D4" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006310</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>汇添富全球消费行业混合（QDII）美元现汇</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>25.54</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.57</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.9092</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006309</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>汇添富全球消费行业混合（QDII）人民币C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.57</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1285</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>000593</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达标普全球高端消费品指数增强(QDII)-美元现汇</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.89</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0854</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005676</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.89</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0854</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>118002</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.89</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0854</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
+      <c r="D5" t="n">
+        <v>6.71</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -814,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -835,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -865,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000906</t>
+          <t>000593</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发全球精选股票(QDII)美元现汇</t>
+          <t>易方达标普全球高端消费品指数增强(QDII)-美元现汇</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>39.19</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.01</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.0927</t>
+          <t>0.1337</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -903,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>270023</t>
+          <t>005676</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发全球精选股票(QDII)</t>
+          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>39.19</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.01</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.0927</t>
+          <t>0.1337</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -941,150 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000593</t>
+          <t>118002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达标普全球高端消费品指数增强(QDII)-美元现汇</t>
+          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.38</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0946</t>
+          <t>0.1337</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005676</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.38</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0946</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>118002</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.38</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0946</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161620</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>融通核心价值混合（QDII）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>61.27</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0251</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1268,7 +894,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1289,7 +915,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1319,36 +945,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000593</t>
+          <t>000906</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达标普全球高端消费品指数增强(QDII)-美元现汇</t>
+          <t>广发全球精选股票(QDII)美元现汇</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>39.19</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>88.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.43</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1337</t>
+          <t>2.0927</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1357,36 +983,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005676</t>
+          <t>270023</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
+          <t>广发全球精选股票(QDII)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>39.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>88.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.43</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1337</t>
+          <t>2.0927</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1395,36 +1021,150 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>118002</t>
+          <t>000593</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
+          <t>易方达标普全球高端消费品指数增强(QDII)-美元现汇</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>93.38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.43</t>
+          <t>5.99</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1337</t>
+          <t>0.0946</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005676</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>118002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161620</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>融通核心价值混合（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>61.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1438,96 +1178,356 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>000906</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2526</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.29</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2526</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006308</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富全球消费行业混合（QDII）人民币A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9092</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006310</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富全球消费行业混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9092</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006309</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富全球消费行业混合（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000593</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强(QDII)-美元现汇</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
-        <v>4.49</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.71</v>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005676</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>118002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/LULU-LululemonAthleticaInc.xlsx
+++ b/数据整理/stocks/其他/LULU-LululemonAthleticaInc.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.49</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>4.49</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>6.71</v>
       </c>
     </row>
@@ -605,36 +622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000593</t>
+          <t>118002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达标普全球高端消费品指数增强(QDII)-美元现汇</t>
+          <t>易方达标普全球高端消费品指数增强A（QDII）人民币</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.43</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1337</t>
+          <t>0.1456</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -643,36 +660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005676</t>
+          <t>000593</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
+          <t>易方达标普全球高端消费品指数增强（QDII）美元现汇</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.43</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1337</t>
+          <t>0.1456</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -681,36 +698,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>118002</t>
+          <t>005676</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
+          <t>易方达标普全球高端消费品指数增强C（QDII）人民币</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.43</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1337</t>
+          <t>0.1456</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -785,26 +802,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.46</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1633</t>
+          <t>0.1337</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -823,26 +840,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.46</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1633</t>
+          <t>0.1337</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -861,26 +878,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.46</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1633</t>
+          <t>0.1337</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -889,6 +906,176 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000593</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强(QDII)-美元现汇</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005676</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>118002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1172,7 +1359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/LULU-LululemonAthleticaInc.xlsx
+++ b/数据整理/stocks/其他/LULU-LululemonAthleticaInc.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.49</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>4.49</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>6.71</v>
       </c>
     </row>
@@ -622,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>118002</t>
+          <t>000593</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达标普全球高端消费品指数增强A（QDII）人民币</t>
+          <t>易方达标普全球高端消费品指数增强（QDII）美元现汇</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.87</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1456</t>
+          <t>0.1410</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -660,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000593</t>
+          <t>005676</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达标普全球高端消费品指数增强（QDII）美元现汇</t>
+          <t>易方达标普全球高端消费品指数增强C（QDII）人民币</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.87</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1456</t>
+          <t>0.1410</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -698,36 +715,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005676</t>
+          <t>118002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达标普全球高端消费品指数增强C（QDII）人民币</t>
+          <t>易方达标普全球高端消费品指数增强A（QDII）人民币</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>93.71</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.87</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1456</t>
+          <t>0.1410</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -792,36 +809,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000593</t>
+          <t>118002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>易方达标普全球高端消费品指数增强(QDII)-美元现汇</t>
+          <t>易方达标普全球高端消费品指数增强A（QDII）人民币</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7.43</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1337</t>
+          <t>0.1456</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -830,36 +847,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005676</t>
+          <t>000593</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
+          <t>易方达标普全球高端消费品指数增强（QDII）美元现汇</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.43</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1337</t>
+          <t>0.1456</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -868,36 +885,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>118002</t>
+          <t>005676</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
+          <t>易方达标普全球高端消费品指数增强C（QDII）人民币</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>93.04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.43</t>
+          <t>7.87</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1337</t>
+          <t>0.1456</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -972,26 +989,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.46</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1633</t>
+          <t>0.1337</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1010,26 +1027,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.46</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1633</t>
+          <t>0.1337</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1048,26 +1065,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.46</t>
+          <t>93.37</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>8.46</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1633</t>
+          <t>0.1337</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1076,6 +1093,176 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000593</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强(QDII)-美元现汇</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005676</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强C(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>118002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达标普全球高端消费品指数增强A(QDII) - 人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1633</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1359,7 +1546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
